--- a/bin/print/ori/TransactionReport.xlsx
+++ b/bin/print/ori/TransactionReport.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19440" windowHeight="7755"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="Daily_Report1" localSheetId="0">Sheet1!$A$1:$O$8</definedName>
+    <definedName name="Daily_Report1" localSheetId="0">Sheet1!$A$1:$N$6</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
 </workbook>
@@ -18,10 +18,9 @@
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
 <connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <connection id="1" name="Daily_Report" type="6" refreshedVersion="3" background="1" refreshOnLoad="1">
-    <textPr prompt="0" codePage="437" sourceFile="E:\ICS_Shaw\bin\print\TransactionReport.txt" delimiter="|">
-      <textFields count="15">
-        <textField/>
+  <connection id="1" name="Daily_Report" type="6" refreshedVersion="4" background="1" refreshOnLoad="1">
+    <textPr prompt="0" codePage="437" sourceFile="E:\ICS_Vendol\bin\print\TransactionReport.txt" tab="0" delimiter="|">
+      <textFields count="14">
         <textField/>
         <textField/>
         <textField/>
@@ -47,11 +46,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -278,6 +277,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -312,6 +312,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -487,14 +488,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O591"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageLayout" zoomScale="90" zoomScaleNormal="100" zoomScalePageLayoutView="90" workbookViewId="0">
       <selection activeCell="M9" sqref="M9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" customHeight="1"/>
+  <sheetFormatPr defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="3.5703125" style="2" customWidth="1"/>
     <col min="2" max="2" width="5.85546875" style="2" customWidth="1"/>
@@ -507,7 +508,7 @@
     <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="14" customFormat="1" ht="16.5" customHeight="1" thickBot="1">
+    <row r="1" spans="1:15" s="14" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="11"/>
       <c r="B1" s="11"/>
       <c r="C1" s="12"/>
@@ -524,7 +525,7 @@
       <c r="N1" s="10"/>
       <c r="O1" s="15"/>
     </row>
-    <row r="2" spans="1:15" s="9" customFormat="1" ht="14.25" customHeight="1" thickBot="1">
+    <row r="2" spans="1:15" s="9" customFormat="1" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="8"/>
       <c r="B2" s="8"/>
       <c r="C2" s="8"/>
@@ -541,1872 +542,1774 @@
       <c r="N2" s="6"/>
       <c r="O2" s="15"/>
     </row>
-    <row r="3" spans="1:15" ht="14.25" customHeight="1">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7"/>
-      <c r="I3" s="7"/>
-      <c r="J3" s="7"/>
-      <c r="K3" s="7"/>
-      <c r="L3" s="7"/>
-      <c r="M3" s="7"/>
-      <c r="N3" s="7"/>
+    <row r="3" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="O3" s="15"/>
     </row>
-    <row r="4" spans="1:15" ht="14.25" customHeight="1">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
+    <row r="4" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C4" s="5"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="7"/>
-      <c r="H4" s="7"/>
-      <c r="I4" s="7"/>
-      <c r="J4" s="7"/>
-      <c r="K4" s="7"/>
-      <c r="L4" s="7"/>
-      <c r="M4" s="7"/>
-      <c r="N4" s="7"/>
       <c r="O4" s="15"/>
     </row>
-    <row r="5" spans="1:15" ht="14.25" customHeight="1">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
+    <row r="5" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C5" s="5"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="7"/>
-      <c r="I5" s="7"/>
-      <c r="J5" s="7"/>
-      <c r="K5" s="7"/>
-      <c r="L5" s="7"/>
-      <c r="M5" s="7"/>
-      <c r="N5" s="7"/>
       <c r="O5" s="15"/>
     </row>
-    <row r="6" spans="1:15" ht="14.25" customHeight="1">
+    <row r="6" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C6" s="5"/>
       <c r="O6" s="15"/>
     </row>
-    <row r="7" spans="1:15" ht="14.25" customHeight="1">
+    <row r="7" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C7" s="5"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="7"/>
-      <c r="I7" s="7"/>
-      <c r="J7" s="7"/>
-      <c r="K7" s="7"/>
-      <c r="L7" s="7"/>
-      <c r="M7" s="7"/>
-      <c r="N7" s="7"/>
-      <c r="O7" s="15"/>
-    </row>
-    <row r="8" spans="1:15" ht="14.25" customHeight="1">
+    </row>
+    <row r="8" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C8" s="5"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="7"/>
-      <c r="I8" s="7"/>
-      <c r="J8" s="7"/>
-      <c r="K8" s="7"/>
-      <c r="L8" s="7"/>
-      <c r="M8" s="7"/>
-      <c r="N8" s="7"/>
-      <c r="O8" s="15"/>
-    </row>
-    <row r="9" spans="1:15" ht="14.25" customHeight="1">
+    </row>
+    <row r="9" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C9" s="5"/>
-      <c r="O9" s="15"/>
-    </row>
-    <row r="10" spans="1:15" ht="14.25" customHeight="1">
+    </row>
+    <row r="10" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C10" s="5"/>
-      <c r="O10" s="15"/>
-    </row>
-    <row r="11" spans="1:15" ht="14.25" customHeight="1">
+    </row>
+    <row r="11" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C11" s="5"/>
-      <c r="O11" s="15"/>
-    </row>
-    <row r="12" spans="1:15" ht="14.25" customHeight="1">
+    </row>
+    <row r="12" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C12" s="5"/>
-      <c r="O12" s="15"/>
-    </row>
-    <row r="13" spans="1:15" ht="14.25" customHeight="1">
+    </row>
+    <row r="13" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C13" s="5"/>
-      <c r="O13" s="15"/>
-    </row>
-    <row r="14" spans="1:15" ht="14.25" customHeight="1">
+    </row>
+    <row r="14" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C14" s="5"/>
-      <c r="O14" s="15"/>
-    </row>
-    <row r="15" spans="1:15" ht="14.25" customHeight="1">
+    </row>
+    <row r="15" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C15" s="5"/>
-      <c r="O15" s="15"/>
-    </row>
-    <row r="16" spans="1:15" ht="14.25" customHeight="1">
+    </row>
+    <row r="16" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C16" s="5"/>
-      <c r="O16" s="15"/>
-    </row>
-    <row r="17" spans="3:15" ht="14.25" customHeight="1">
+    </row>
+    <row r="17" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C17" s="5"/>
-      <c r="O17" s="15"/>
-    </row>
-    <row r="18" spans="3:15" ht="14.25" customHeight="1">
+    </row>
+    <row r="18" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C18" s="5"/>
-      <c r="O18" s="15"/>
-    </row>
-    <row r="19" spans="3:15" ht="14.25" customHeight="1">
+    </row>
+    <row r="19" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C19" s="5"/>
-      <c r="O19" s="15"/>
-    </row>
-    <row r="20" spans="3:15" ht="14.25" customHeight="1">
+    </row>
+    <row r="20" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C20" s="5"/>
-      <c r="O20" s="15"/>
-    </row>
-    <row r="21" spans="3:15" ht="14.25" customHeight="1">
+    </row>
+    <row r="21" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C21" s="5"/>
-      <c r="O21" s="15"/>
-    </row>
-    <row r="22" spans="3:15" ht="14.25" customHeight="1">
+    </row>
+    <row r="22" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C22" s="5"/>
-      <c r="O22" s="15"/>
-    </row>
-    <row r="23" spans="3:15" ht="14.25" customHeight="1">
+    </row>
+    <row r="23" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C23" s="5"/>
-      <c r="O23" s="15"/>
-    </row>
-    <row r="24" spans="3:15" ht="14.25" customHeight="1">
+    </row>
+    <row r="24" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C24" s="5"/>
-      <c r="O24" s="15"/>
-    </row>
-    <row r="25" spans="3:15" ht="14.25" customHeight="1">
+    </row>
+    <row r="25" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C25" s="5"/>
-      <c r="O25" s="15"/>
-    </row>
-    <row r="26" spans="3:15" ht="14.25" customHeight="1">
+    </row>
+    <row r="26" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C26" s="5"/>
-      <c r="O26" s="15"/>
-    </row>
-    <row r="27" spans="3:15" ht="14.25" customHeight="1">
+    </row>
+    <row r="27" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C27" s="5"/>
-      <c r="O27" s="15"/>
-    </row>
-    <row r="28" spans="3:15" ht="14.25" customHeight="1">
+    </row>
+    <row r="28" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C28" s="5"/>
-      <c r="O28" s="15"/>
-    </row>
-    <row r="29" spans="3:15" ht="14.25" customHeight="1">
+    </row>
+    <row r="29" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C29" s="5"/>
-      <c r="O29" s="15"/>
-    </row>
-    <row r="30" spans="3:15" ht="14.25" customHeight="1">
+    </row>
+    <row r="30" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C30" s="5"/>
-      <c r="O30" s="15"/>
-    </row>
-    <row r="31" spans="3:15" ht="14.25" customHeight="1">
+    </row>
+    <row r="31" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C31" s="5"/>
-      <c r="O31" s="15"/>
-    </row>
-    <row r="32" spans="3:15" ht="14.25" customHeight="1">
+    </row>
+    <row r="32" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C32" s="5"/>
-      <c r="O32" s="15"/>
-    </row>
-    <row r="33" spans="3:15" ht="14.25" customHeight="1">
+    </row>
+    <row r="33" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C33" s="5"/>
-      <c r="O33" s="15"/>
-    </row>
-    <row r="34" spans="3:15" ht="14.25" customHeight="1">
+    </row>
+    <row r="34" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C34" s="5"/>
-      <c r="O34" s="15"/>
-    </row>
-    <row r="35" spans="3:15" ht="14.25" customHeight="1">
+    </row>
+    <row r="35" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C35" s="5"/>
-      <c r="O35" s="15"/>
-    </row>
-    <row r="36" spans="3:15" ht="14.25" customHeight="1">
+    </row>
+    <row r="36" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C36" s="5"/>
-      <c r="O36" s="15"/>
-    </row>
-    <row r="37" spans="3:15" ht="14.25" customHeight="1">
+    </row>
+    <row r="37" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C37" s="5"/>
-      <c r="O37" s="15"/>
-    </row>
-    <row r="38" spans="3:15" ht="14.25" customHeight="1">
+    </row>
+    <row r="38" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C38" s="5"/>
-      <c r="O38" s="15"/>
-    </row>
-    <row r="39" spans="3:15" ht="14.25" customHeight="1">
+    </row>
+    <row r="39" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C39" s="5"/>
-      <c r="O39" s="15"/>
-    </row>
-    <row r="40" spans="3:15" ht="14.25" customHeight="1">
+    </row>
+    <row r="40" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C40" s="5"/>
-      <c r="O40" s="15"/>
-    </row>
-    <row r="41" spans="3:15" ht="14.25" customHeight="1">
+    </row>
+    <row r="41" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C41" s="5"/>
-      <c r="O41" s="15"/>
-    </row>
-    <row r="42" spans="3:15" ht="14.25" customHeight="1">
+    </row>
+    <row r="42" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C42" s="5"/>
-      <c r="O42" s="15"/>
-    </row>
-    <row r="43" spans="3:15" ht="14.25" customHeight="1">
+    </row>
+    <row r="43" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C43" s="5"/>
     </row>
-    <row r="44" spans="3:15" ht="14.25" customHeight="1">
+    <row r="44" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C44" s="5"/>
     </row>
-    <row r="45" spans="3:15" ht="14.25" customHeight="1">
+    <row r="45" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C45" s="5"/>
     </row>
-    <row r="46" spans="3:15" ht="14.25" customHeight="1">
+    <row r="46" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C46" s="5"/>
     </row>
-    <row r="47" spans="3:15" ht="14.25" customHeight="1">
+    <row r="47" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C47" s="5"/>
     </row>
-    <row r="48" spans="3:15" ht="14.25" customHeight="1">
+    <row r="48" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C48" s="5"/>
     </row>
-    <row r="49" spans="3:3" ht="14.25" customHeight="1">
+    <row r="49" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C49" s="5"/>
     </row>
-    <row r="50" spans="3:3" ht="14.25" customHeight="1">
+    <row r="50" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C50" s="5"/>
     </row>
-    <row r="51" spans="3:3" ht="14.25" customHeight="1">
+    <row r="51" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C51" s="5"/>
     </row>
-    <row r="52" spans="3:3" ht="14.25" customHeight="1">
+    <row r="52" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C52" s="5"/>
     </row>
-    <row r="53" spans="3:3" ht="14.25" customHeight="1">
+    <row r="53" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C53" s="5"/>
     </row>
-    <row r="54" spans="3:3" ht="14.25" customHeight="1">
+    <row r="54" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C54" s="5"/>
     </row>
-    <row r="55" spans="3:3" ht="14.25" customHeight="1">
+    <row r="55" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C55" s="5"/>
     </row>
-    <row r="56" spans="3:3" ht="14.25" customHeight="1">
+    <row r="56" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C56" s="5"/>
     </row>
-    <row r="57" spans="3:3" ht="14.25" customHeight="1">
+    <row r="57" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C57" s="5"/>
     </row>
-    <row r="58" spans="3:3" ht="14.25" customHeight="1">
+    <row r="58" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C58" s="5"/>
     </row>
-    <row r="59" spans="3:3" ht="14.25" customHeight="1">
+    <row r="59" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C59" s="5"/>
     </row>
-    <row r="60" spans="3:3" ht="14.25" customHeight="1">
+    <row r="60" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C60" s="5"/>
     </row>
-    <row r="61" spans="3:3" ht="14.25" customHeight="1">
+    <row r="61" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C61" s="5"/>
     </row>
-    <row r="62" spans="3:3" ht="14.25" customHeight="1">
+    <row r="62" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C62" s="5"/>
     </row>
-    <row r="63" spans="3:3" ht="14.25" customHeight="1">
+    <row r="63" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C63" s="5"/>
     </row>
-    <row r="64" spans="3:3" ht="14.25" customHeight="1">
+    <row r="64" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C64" s="5"/>
     </row>
-    <row r="65" spans="3:3" ht="14.25" customHeight="1">
+    <row r="65" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C65" s="5"/>
     </row>
-    <row r="66" spans="3:3" ht="14.25" customHeight="1">
+    <row r="66" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C66" s="5"/>
     </row>
-    <row r="67" spans="3:3" ht="14.25" customHeight="1">
+    <row r="67" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C67" s="5"/>
     </row>
-    <row r="68" spans="3:3" ht="14.25" customHeight="1">
+    <row r="68" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C68" s="5"/>
     </row>
-    <row r="69" spans="3:3" ht="14.25" customHeight="1">
+    <row r="69" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C69" s="5"/>
     </row>
-    <row r="70" spans="3:3" ht="14.25" customHeight="1">
+    <row r="70" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C70" s="5"/>
     </row>
-    <row r="71" spans="3:3" ht="14.25" customHeight="1">
+    <row r="71" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C71" s="5"/>
     </row>
-    <row r="72" spans="3:3" ht="14.25" customHeight="1">
+    <row r="72" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C72" s="5"/>
     </row>
-    <row r="73" spans="3:3" ht="14.25" customHeight="1">
+    <row r="73" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C73" s="5"/>
     </row>
-    <row r="74" spans="3:3" ht="14.25" customHeight="1">
+    <row r="74" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C74" s="5"/>
     </row>
-    <row r="75" spans="3:3" ht="14.25" customHeight="1">
+    <row r="75" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C75" s="5"/>
     </row>
-    <row r="76" spans="3:3" ht="14.25" customHeight="1">
+    <row r="76" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C76" s="5"/>
     </row>
-    <row r="77" spans="3:3" ht="14.25" customHeight="1">
+    <row r="77" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C77" s="5"/>
     </row>
-    <row r="78" spans="3:3" ht="14.25" customHeight="1">
+    <row r="78" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C78" s="5"/>
     </row>
-    <row r="79" spans="3:3" ht="14.25" customHeight="1">
+    <row r="79" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C79" s="5"/>
     </row>
-    <row r="80" spans="3:3" ht="14.25" customHeight="1">
+    <row r="80" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C80" s="5"/>
     </row>
-    <row r="81" spans="3:3" ht="14.25" customHeight="1">
+    <row r="81" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C81" s="5"/>
     </row>
-    <row r="82" spans="3:3" ht="14.25" customHeight="1">
+    <row r="82" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C82" s="5"/>
     </row>
-    <row r="83" spans="3:3" ht="14.25" customHeight="1">
+    <row r="83" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C83" s="5"/>
     </row>
-    <row r="84" spans="3:3" ht="14.25" customHeight="1">
+    <row r="84" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C84" s="5"/>
     </row>
-    <row r="85" spans="3:3" ht="14.25" customHeight="1">
+    <row r="85" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C85" s="5"/>
     </row>
-    <row r="86" spans="3:3" ht="14.25" customHeight="1">
+    <row r="86" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C86" s="5"/>
     </row>
-    <row r="87" spans="3:3" ht="14.25" customHeight="1">
+    <row r="87" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C87" s="5"/>
     </row>
-    <row r="88" spans="3:3" ht="14.25" customHeight="1">
+    <row r="88" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C88" s="5"/>
     </row>
-    <row r="89" spans="3:3" ht="14.25" customHeight="1">
+    <row r="89" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C89" s="5"/>
     </row>
-    <row r="90" spans="3:3" ht="14.25" customHeight="1">
+    <row r="90" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C90" s="5"/>
     </row>
-    <row r="91" spans="3:3" ht="14.25" customHeight="1">
+    <row r="91" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C91" s="5"/>
     </row>
-    <row r="92" spans="3:3" ht="14.25" customHeight="1">
+    <row r="92" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C92" s="5"/>
     </row>
-    <row r="93" spans="3:3" ht="14.25" customHeight="1">
+    <row r="93" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C93" s="5"/>
     </row>
-    <row r="94" spans="3:3" ht="14.25" customHeight="1">
+    <row r="94" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C94" s="5"/>
     </row>
-    <row r="95" spans="3:3" ht="14.25" customHeight="1">
+    <row r="95" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C95" s="5"/>
     </row>
-    <row r="96" spans="3:3" ht="14.25" customHeight="1">
+    <row r="96" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C96" s="5"/>
     </row>
-    <row r="97" spans="3:3" ht="14.25" customHeight="1">
+    <row r="97" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C97" s="5"/>
     </row>
-    <row r="98" spans="3:3" ht="14.25" customHeight="1">
+    <row r="98" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C98" s="5"/>
     </row>
-    <row r="99" spans="3:3" ht="14.25" customHeight="1">
+    <row r="99" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C99" s="5"/>
     </row>
-    <row r="100" spans="3:3" ht="14.25" customHeight="1">
+    <row r="100" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C100" s="5"/>
     </row>
-    <row r="101" spans="3:3" ht="14.25" customHeight="1">
+    <row r="101" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C101" s="5"/>
     </row>
-    <row r="102" spans="3:3" ht="14.25" customHeight="1">
+    <row r="102" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C102" s="5"/>
     </row>
-    <row r="103" spans="3:3" ht="14.25" customHeight="1">
+    <row r="103" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C103" s="5"/>
     </row>
-    <row r="104" spans="3:3" ht="14.25" customHeight="1">
+    <row r="104" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C104" s="5"/>
     </row>
-    <row r="105" spans="3:3" ht="14.25" customHeight="1">
+    <row r="105" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C105" s="5"/>
     </row>
-    <row r="106" spans="3:3" ht="14.25" customHeight="1">
+    <row r="106" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C106" s="5"/>
     </row>
-    <row r="107" spans="3:3" ht="14.25" customHeight="1">
+    <row r="107" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C107" s="5"/>
     </row>
-    <row r="108" spans="3:3" ht="14.25" customHeight="1">
+    <row r="108" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C108" s="5"/>
     </row>
-    <row r="109" spans="3:3" ht="14.25" customHeight="1">
+    <row r="109" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C109" s="5"/>
     </row>
-    <row r="110" spans="3:3" ht="14.25" customHeight="1">
+    <row r="110" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C110" s="5"/>
     </row>
-    <row r="111" spans="3:3" ht="14.25" customHeight="1">
+    <row r="111" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C111" s="5"/>
     </row>
-    <row r="112" spans="3:3" ht="14.25" customHeight="1">
+    <row r="112" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C112" s="5"/>
     </row>
-    <row r="113" spans="3:3" ht="14.25" customHeight="1">
+    <row r="113" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C113" s="5"/>
     </row>
-    <row r="114" spans="3:3" ht="14.25" customHeight="1">
+    <row r="114" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C114" s="5"/>
     </row>
-    <row r="115" spans="3:3" ht="14.25" customHeight="1">
+    <row r="115" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C115" s="5"/>
     </row>
-    <row r="116" spans="3:3" ht="14.25" customHeight="1">
+    <row r="116" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C116" s="5"/>
     </row>
-    <row r="117" spans="3:3" ht="14.25" customHeight="1">
+    <row r="117" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C117" s="5"/>
     </row>
-    <row r="118" spans="3:3" ht="14.25" customHeight="1">
+    <row r="118" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C118" s="5"/>
     </row>
-    <row r="119" spans="3:3" ht="14.25" customHeight="1">
+    <row r="119" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C119" s="5"/>
     </row>
-    <row r="120" spans="3:3" ht="14.25" customHeight="1">
+    <row r="120" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C120" s="5"/>
     </row>
-    <row r="121" spans="3:3" ht="14.25" customHeight="1">
+    <row r="121" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C121" s="5"/>
     </row>
-    <row r="122" spans="3:3" ht="14.25" customHeight="1">
+    <row r="122" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C122" s="5"/>
     </row>
-    <row r="123" spans="3:3" ht="14.25" customHeight="1">
+    <row r="123" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C123" s="5"/>
     </row>
-    <row r="124" spans="3:3" ht="14.25" customHeight="1">
+    <row r="124" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C124" s="5"/>
     </row>
-    <row r="125" spans="3:3" ht="14.25" customHeight="1">
+    <row r="125" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C125" s="5"/>
     </row>
-    <row r="126" spans="3:3" ht="14.25" customHeight="1">
+    <row r="126" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C126" s="5"/>
     </row>
-    <row r="127" spans="3:3" ht="14.25" customHeight="1">
+    <row r="127" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C127" s="5"/>
     </row>
-    <row r="128" spans="3:3" ht="14.25" customHeight="1">
+    <row r="128" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C128" s="5"/>
     </row>
-    <row r="129" spans="3:3" ht="14.25" customHeight="1">
+    <row r="129" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C129" s="5"/>
     </row>
-    <row r="130" spans="3:3" ht="14.25" customHeight="1">
+    <row r="130" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C130" s="5"/>
     </row>
-    <row r="131" spans="3:3" ht="14.25" customHeight="1">
+    <row r="131" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C131" s="5"/>
     </row>
-    <row r="132" spans="3:3" ht="14.25" customHeight="1">
+    <row r="132" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C132" s="5"/>
     </row>
-    <row r="133" spans="3:3" ht="14.25" customHeight="1">
+    <row r="133" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C133" s="5"/>
     </row>
-    <row r="134" spans="3:3" ht="14.25" customHeight="1">
+    <row r="134" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C134" s="5"/>
     </row>
-    <row r="135" spans="3:3" ht="14.25" customHeight="1">
+    <row r="135" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C135" s="5"/>
     </row>
-    <row r="136" spans="3:3" ht="14.25" customHeight="1">
+    <row r="136" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C136" s="5"/>
     </row>
-    <row r="137" spans="3:3" ht="14.25" customHeight="1">
+    <row r="137" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C137" s="5"/>
     </row>
-    <row r="138" spans="3:3" ht="14.25" customHeight="1">
+    <row r="138" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C138" s="5"/>
     </row>
-    <row r="139" spans="3:3" ht="14.25" customHeight="1">
+    <row r="139" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C139" s="5"/>
     </row>
-    <row r="140" spans="3:3" ht="14.25" customHeight="1">
+    <row r="140" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C140" s="5"/>
     </row>
-    <row r="141" spans="3:3" ht="14.25" customHeight="1">
+    <row r="141" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C141" s="5"/>
     </row>
-    <row r="142" spans="3:3" ht="14.25" customHeight="1">
+    <row r="142" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C142" s="5"/>
     </row>
-    <row r="143" spans="3:3" ht="14.25" customHeight="1">
+    <row r="143" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C143" s="5"/>
     </row>
-    <row r="144" spans="3:3" ht="14.25" customHeight="1">
+    <row r="144" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C144" s="5"/>
     </row>
-    <row r="145" spans="3:3" ht="14.25" customHeight="1">
+    <row r="145" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C145" s="5"/>
     </row>
-    <row r="146" spans="3:3" ht="14.25" customHeight="1">
+    <row r="146" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C146" s="5"/>
     </row>
-    <row r="147" spans="3:3" ht="14.25" customHeight="1">
+    <row r="147" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C147" s="5"/>
     </row>
-    <row r="148" spans="3:3" ht="14.25" customHeight="1">
+    <row r="148" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C148" s="5"/>
     </row>
-    <row r="149" spans="3:3" ht="14.25" customHeight="1">
+    <row r="149" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C149" s="5"/>
     </row>
-    <row r="150" spans="3:3" ht="14.25" customHeight="1">
+    <row r="150" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C150" s="5"/>
     </row>
-    <row r="151" spans="3:3" ht="14.25" customHeight="1">
+    <row r="151" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C151" s="5"/>
     </row>
-    <row r="152" spans="3:3" ht="14.25" customHeight="1">
+    <row r="152" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C152" s="5"/>
     </row>
-    <row r="153" spans="3:3" ht="14.25" customHeight="1">
+    <row r="153" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C153" s="5"/>
     </row>
-    <row r="154" spans="3:3" ht="14.25" customHeight="1">
+    <row r="154" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C154" s="5"/>
     </row>
-    <row r="155" spans="3:3" ht="14.25" customHeight="1">
+    <row r="155" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C155" s="5"/>
     </row>
-    <row r="156" spans="3:3" ht="14.25" customHeight="1">
+    <row r="156" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C156" s="5"/>
     </row>
-    <row r="157" spans="3:3" ht="14.25" customHeight="1">
+    <row r="157" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C157" s="5"/>
     </row>
-    <row r="158" spans="3:3" ht="14.25" customHeight="1">
+    <row r="158" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C158" s="5"/>
     </row>
-    <row r="159" spans="3:3" ht="14.25" customHeight="1">
+    <row r="159" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C159" s="5"/>
     </row>
-    <row r="160" spans="3:3" ht="14.25" customHeight="1">
+    <row r="160" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C160" s="5"/>
     </row>
-    <row r="161" spans="3:3" ht="14.25" customHeight="1">
+    <row r="161" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C161" s="5"/>
     </row>
-    <row r="162" spans="3:3" ht="14.25" customHeight="1">
+    <row r="162" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C162" s="5"/>
     </row>
-    <row r="163" spans="3:3" ht="14.25" customHeight="1">
+    <row r="163" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C163" s="5"/>
     </row>
-    <row r="164" spans="3:3" ht="14.25" customHeight="1">
+    <row r="164" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C164" s="5"/>
     </row>
-    <row r="165" spans="3:3" ht="14.25" customHeight="1">
+    <row r="165" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C165" s="5"/>
     </row>
-    <row r="166" spans="3:3" ht="14.25" customHeight="1">
+    <row r="166" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C166" s="5"/>
     </row>
-    <row r="167" spans="3:3" ht="14.25" customHeight="1">
+    <row r="167" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C167" s="5"/>
     </row>
-    <row r="168" spans="3:3" ht="14.25" customHeight="1">
+    <row r="168" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C168" s="5"/>
     </row>
-    <row r="169" spans="3:3" ht="14.25" customHeight="1">
+    <row r="169" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C169" s="5"/>
     </row>
-    <row r="170" spans="3:3" ht="14.25" customHeight="1">
+    <row r="170" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C170" s="5"/>
     </row>
-    <row r="171" spans="3:3" ht="14.25" customHeight="1">
+    <row r="171" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C171" s="5"/>
     </row>
-    <row r="172" spans="3:3" ht="14.25" customHeight="1">
+    <row r="172" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C172" s="5"/>
     </row>
-    <row r="173" spans="3:3" ht="14.25" customHeight="1">
+    <row r="173" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C173" s="5"/>
     </row>
-    <row r="174" spans="3:3" ht="14.25" customHeight="1">
+    <row r="174" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C174" s="5"/>
     </row>
-    <row r="175" spans="3:3" ht="14.25" customHeight="1">
+    <row r="175" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C175" s="5"/>
     </row>
-    <row r="176" spans="3:3" ht="14.25" customHeight="1">
+    <row r="176" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C176" s="5"/>
     </row>
-    <row r="177" spans="3:3" ht="14.25" customHeight="1">
+    <row r="177" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C177" s="5"/>
     </row>
-    <row r="178" spans="3:3" ht="14.25" customHeight="1">
+    <row r="178" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C178" s="5"/>
     </row>
-    <row r="179" spans="3:3" ht="14.25" customHeight="1">
+    <row r="179" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C179" s="5"/>
     </row>
-    <row r="180" spans="3:3" ht="14.25" customHeight="1">
+    <row r="180" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C180" s="5"/>
     </row>
-    <row r="181" spans="3:3" ht="14.25" customHeight="1">
+    <row r="181" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C181" s="5"/>
     </row>
-    <row r="182" spans="3:3" ht="14.25" customHeight="1">
+    <row r="182" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C182" s="5"/>
     </row>
-    <row r="183" spans="3:3" ht="14.25" customHeight="1">
+    <row r="183" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C183" s="5"/>
     </row>
-    <row r="184" spans="3:3" ht="14.25" customHeight="1">
+    <row r="184" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C184" s="5"/>
     </row>
-    <row r="185" spans="3:3" ht="14.25" customHeight="1">
+    <row r="185" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C185" s="5"/>
     </row>
-    <row r="186" spans="3:3" ht="14.25" customHeight="1">
+    <row r="186" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C186" s="5"/>
     </row>
-    <row r="187" spans="3:3" ht="14.25" customHeight="1">
+    <row r="187" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C187" s="5"/>
     </row>
-    <row r="188" spans="3:3" ht="14.25" customHeight="1">
+    <row r="188" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C188" s="5"/>
     </row>
-    <row r="189" spans="3:3" ht="14.25" customHeight="1">
+    <row r="189" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C189" s="5"/>
     </row>
-    <row r="190" spans="3:3" ht="14.25" customHeight="1">
+    <row r="190" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C190" s="5"/>
     </row>
-    <row r="191" spans="3:3" ht="14.25" customHeight="1">
+    <row r="191" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C191" s="5"/>
     </row>
-    <row r="192" spans="3:3" ht="14.25" customHeight="1">
+    <row r="192" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C192" s="5"/>
     </row>
-    <row r="193" spans="3:3" ht="14.25" customHeight="1">
+    <row r="193" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C193" s="5"/>
     </row>
-    <row r="194" spans="3:3" ht="14.25" customHeight="1">
+    <row r="194" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C194" s="5"/>
     </row>
-    <row r="195" spans="3:3" ht="14.25" customHeight="1">
+    <row r="195" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C195" s="5"/>
     </row>
-    <row r="196" spans="3:3" ht="14.25" customHeight="1">
+    <row r="196" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C196" s="5"/>
     </row>
-    <row r="197" spans="3:3" ht="14.25" customHeight="1">
+    <row r="197" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C197" s="5"/>
     </row>
-    <row r="198" spans="3:3" ht="14.25" customHeight="1">
+    <row r="198" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C198" s="5"/>
     </row>
-    <row r="199" spans="3:3" ht="14.25" customHeight="1">
+    <row r="199" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C199" s="5"/>
     </row>
-    <row r="200" spans="3:3" ht="14.25" customHeight="1">
+    <row r="200" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C200" s="5"/>
     </row>
-    <row r="201" spans="3:3" ht="14.25" customHeight="1">
+    <row r="201" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C201" s="5"/>
     </row>
-    <row r="202" spans="3:3" ht="14.25" customHeight="1">
+    <row r="202" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C202" s="5"/>
     </row>
-    <row r="203" spans="3:3" ht="14.25" customHeight="1">
+    <row r="203" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C203" s="5"/>
     </row>
-    <row r="204" spans="3:3" ht="14.25" customHeight="1">
+    <row r="204" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C204" s="5"/>
     </row>
-    <row r="205" spans="3:3" ht="14.25" customHeight="1">
+    <row r="205" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C205" s="5"/>
     </row>
-    <row r="206" spans="3:3" ht="14.25" customHeight="1">
+    <row r="206" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C206" s="5"/>
     </row>
-    <row r="207" spans="3:3" ht="14.25" customHeight="1">
+    <row r="207" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C207" s="5"/>
     </row>
-    <row r="208" spans="3:3" ht="14.25" customHeight="1">
+    <row r="208" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C208" s="5"/>
     </row>
-    <row r="209" spans="3:3" ht="14.25" customHeight="1">
+    <row r="209" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C209" s="5"/>
     </row>
-    <row r="210" spans="3:3" ht="14.25" customHeight="1">
+    <row r="210" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C210" s="5"/>
     </row>
-    <row r="211" spans="3:3" ht="14.25" customHeight="1">
+    <row r="211" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C211" s="5"/>
     </row>
-    <row r="212" spans="3:3" ht="14.25" customHeight="1">
+    <row r="212" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C212" s="5"/>
     </row>
-    <row r="213" spans="3:3" ht="14.25" customHeight="1">
+    <row r="213" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C213" s="5"/>
     </row>
-    <row r="214" spans="3:3" ht="14.25" customHeight="1">
+    <row r="214" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C214" s="5"/>
     </row>
-    <row r="215" spans="3:3" ht="14.25" customHeight="1">
+    <row r="215" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C215" s="5"/>
     </row>
-    <row r="216" spans="3:3" ht="14.25" customHeight="1">
+    <row r="216" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C216" s="5"/>
     </row>
-    <row r="217" spans="3:3" ht="14.25" customHeight="1">
+    <row r="217" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C217" s="5"/>
     </row>
-    <row r="218" spans="3:3" ht="14.25" customHeight="1">
+    <row r="218" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C218" s="5"/>
     </row>
-    <row r="219" spans="3:3" ht="14.25" customHeight="1">
+    <row r="219" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C219" s="5"/>
     </row>
-    <row r="220" spans="3:3" ht="14.25" customHeight="1">
+    <row r="220" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C220" s="5"/>
     </row>
-    <row r="221" spans="3:3" ht="14.25" customHeight="1">
+    <row r="221" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C221" s="5"/>
     </row>
-    <row r="222" spans="3:3" ht="14.25" customHeight="1">
+    <row r="222" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C222" s="5"/>
     </row>
-    <row r="223" spans="3:3" ht="14.25" customHeight="1">
+    <row r="223" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C223" s="5"/>
     </row>
-    <row r="224" spans="3:3" ht="14.25" customHeight="1">
+    <row r="224" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C224" s="5"/>
     </row>
-    <row r="225" spans="3:3" ht="14.25" customHeight="1">
+    <row r="225" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C225" s="5"/>
     </row>
-    <row r="226" spans="3:3" ht="14.25" customHeight="1">
+    <row r="226" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C226" s="5"/>
     </row>
-    <row r="227" spans="3:3" ht="14.25" customHeight="1">
+    <row r="227" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C227" s="5"/>
     </row>
-    <row r="228" spans="3:3" ht="14.25" customHeight="1">
+    <row r="228" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C228" s="5"/>
     </row>
-    <row r="229" spans="3:3" ht="14.25" customHeight="1">
+    <row r="229" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C229" s="5"/>
     </row>
-    <row r="230" spans="3:3" ht="14.25" customHeight="1">
+    <row r="230" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C230" s="5"/>
     </row>
-    <row r="231" spans="3:3" ht="14.25" customHeight="1">
+    <row r="231" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C231" s="5"/>
     </row>
-    <row r="232" spans="3:3" ht="14.25" customHeight="1">
+    <row r="232" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C232" s="5"/>
     </row>
-    <row r="233" spans="3:3" ht="14.25" customHeight="1">
+    <row r="233" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C233" s="5"/>
     </row>
-    <row r="234" spans="3:3" ht="14.25" customHeight="1">
+    <row r="234" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C234" s="5"/>
     </row>
-    <row r="235" spans="3:3" ht="14.25" customHeight="1">
+    <row r="235" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C235" s="5"/>
     </row>
-    <row r="236" spans="3:3" ht="14.25" customHeight="1">
+    <row r="236" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C236" s="5"/>
     </row>
-    <row r="237" spans="3:3" ht="14.25" customHeight="1">
+    <row r="237" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C237" s="5"/>
     </row>
-    <row r="238" spans="3:3" ht="14.25" customHeight="1">
+    <row r="238" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C238" s="5"/>
     </row>
-    <row r="239" spans="3:3" ht="14.25" customHeight="1">
+    <row r="239" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C239" s="5"/>
     </row>
-    <row r="240" spans="3:3" ht="14.25" customHeight="1">
+    <row r="240" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C240" s="5"/>
     </row>
-    <row r="241" spans="3:3" ht="14.25" customHeight="1">
+    <row r="241" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C241" s="5"/>
     </row>
-    <row r="242" spans="3:3" ht="14.25" customHeight="1">
+    <row r="242" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C242" s="5"/>
     </row>
-    <row r="243" spans="3:3" ht="14.25" customHeight="1">
+    <row r="243" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C243" s="5"/>
     </row>
-    <row r="244" spans="3:3" ht="14.25" customHeight="1">
+    <row r="244" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C244" s="5"/>
     </row>
-    <row r="245" spans="3:3" ht="14.25" customHeight="1">
+    <row r="245" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C245" s="5"/>
     </row>
-    <row r="246" spans="3:3" ht="14.25" customHeight="1">
+    <row r="246" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C246" s="5"/>
     </row>
-    <row r="247" spans="3:3" ht="14.25" customHeight="1">
+    <row r="247" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C247" s="5"/>
     </row>
-    <row r="248" spans="3:3" ht="14.25" customHeight="1">
+    <row r="248" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C248" s="5"/>
     </row>
-    <row r="249" spans="3:3" ht="14.25" customHeight="1">
+    <row r="249" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C249" s="5"/>
     </row>
-    <row r="250" spans="3:3" ht="14.25" customHeight="1">
+    <row r="250" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C250" s="5"/>
     </row>
-    <row r="251" spans="3:3" ht="14.25" customHeight="1">
+    <row r="251" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C251" s="5"/>
     </row>
-    <row r="252" spans="3:3" ht="14.25" customHeight="1">
+    <row r="252" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C252" s="5"/>
     </row>
-    <row r="253" spans="3:3" ht="14.25" customHeight="1">
+    <row r="253" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C253" s="5"/>
     </row>
-    <row r="254" spans="3:3" ht="14.25" customHeight="1">
+    <row r="254" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C254" s="5"/>
     </row>
-    <row r="255" spans="3:3" ht="14.25" customHeight="1">
+    <row r="255" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C255" s="5"/>
     </row>
-    <row r="256" spans="3:3" ht="14.25" customHeight="1">
+    <row r="256" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C256" s="5"/>
     </row>
-    <row r="257" spans="3:3" ht="14.25" customHeight="1">
+    <row r="257" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C257" s="5"/>
     </row>
-    <row r="258" spans="3:3" ht="14.25" customHeight="1">
+    <row r="258" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C258" s="5"/>
     </row>
-    <row r="259" spans="3:3" ht="14.25" customHeight="1">
+    <row r="259" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C259" s="5"/>
     </row>
-    <row r="260" spans="3:3" ht="14.25" customHeight="1">
+    <row r="260" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C260" s="5"/>
     </row>
-    <row r="261" spans="3:3" ht="14.25" customHeight="1">
+    <row r="261" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C261" s="5"/>
     </row>
-    <row r="262" spans="3:3" ht="14.25" customHeight="1">
+    <row r="262" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C262" s="5"/>
     </row>
-    <row r="263" spans="3:3" ht="14.25" customHeight="1">
+    <row r="263" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C263" s="5"/>
     </row>
-    <row r="264" spans="3:3" ht="14.25" customHeight="1">
+    <row r="264" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C264" s="5"/>
     </row>
-    <row r="265" spans="3:3" ht="14.25" customHeight="1">
+    <row r="265" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C265" s="5"/>
     </row>
-    <row r="266" spans="3:3" ht="14.25" customHeight="1">
+    <row r="266" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C266" s="5"/>
     </row>
-    <row r="267" spans="3:3" ht="14.25" customHeight="1">
+    <row r="267" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C267" s="5"/>
     </row>
-    <row r="268" spans="3:3" ht="14.25" customHeight="1">
+    <row r="268" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C268" s="5"/>
     </row>
-    <row r="269" spans="3:3" ht="14.25" customHeight="1">
+    <row r="269" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C269" s="5"/>
     </row>
-    <row r="270" spans="3:3" ht="14.25" customHeight="1">
+    <row r="270" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C270" s="5"/>
     </row>
-    <row r="271" spans="3:3" ht="14.25" customHeight="1">
+    <row r="271" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C271" s="5"/>
     </row>
-    <row r="272" spans="3:3" ht="14.25" customHeight="1">
+    <row r="272" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C272" s="5"/>
     </row>
-    <row r="273" spans="3:3" ht="14.25" customHeight="1">
+    <row r="273" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C273" s="5"/>
     </row>
-    <row r="274" spans="3:3" ht="14.25" customHeight="1">
+    <row r="274" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C274" s="5"/>
     </row>
-    <row r="275" spans="3:3" ht="14.25" customHeight="1">
+    <row r="275" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C275" s="5"/>
     </row>
-    <row r="276" spans="3:3" ht="14.25" customHeight="1">
+    <row r="276" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C276" s="5"/>
     </row>
-    <row r="277" spans="3:3" ht="14.25" customHeight="1">
+    <row r="277" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C277" s="5"/>
     </row>
-    <row r="278" spans="3:3" ht="14.25" customHeight="1">
+    <row r="278" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C278" s="5"/>
     </row>
-    <row r="279" spans="3:3" ht="14.25" customHeight="1">
+    <row r="279" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C279" s="5"/>
     </row>
-    <row r="280" spans="3:3" ht="14.25" customHeight="1">
+    <row r="280" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C280" s="5"/>
     </row>
-    <row r="281" spans="3:3" ht="14.25" customHeight="1">
+    <row r="281" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C281" s="5"/>
     </row>
-    <row r="282" spans="3:3" ht="14.25" customHeight="1">
+    <row r="282" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C282" s="5"/>
     </row>
-    <row r="283" spans="3:3" ht="14.25" customHeight="1">
+    <row r="283" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C283" s="5"/>
     </row>
-    <row r="284" spans="3:3" ht="14.25" customHeight="1">
+    <row r="284" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C284" s="5"/>
     </row>
-    <row r="285" spans="3:3" ht="14.25" customHeight="1">
+    <row r="285" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C285" s="5"/>
     </row>
-    <row r="286" spans="3:3" ht="14.25" customHeight="1">
+    <row r="286" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C286" s="5"/>
     </row>
-    <row r="287" spans="3:3" ht="14.25" customHeight="1">
+    <row r="287" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C287" s="5"/>
     </row>
-    <row r="288" spans="3:3" ht="14.25" customHeight="1">
+    <row r="288" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C288" s="5"/>
     </row>
-    <row r="289" spans="3:3" ht="14.25" customHeight="1">
+    <row r="289" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C289" s="5"/>
     </row>
-    <row r="290" spans="3:3" ht="14.25" customHeight="1">
+    <row r="290" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C290" s="5"/>
     </row>
-    <row r="291" spans="3:3" ht="14.25" customHeight="1">
+    <row r="291" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C291" s="5"/>
     </row>
-    <row r="292" spans="3:3" ht="14.25" customHeight="1">
+    <row r="292" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C292" s="5"/>
     </row>
-    <row r="293" spans="3:3" ht="14.25" customHeight="1">
+    <row r="293" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C293" s="5"/>
     </row>
-    <row r="294" spans="3:3" ht="14.25" customHeight="1">
+    <row r="294" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C294" s="5"/>
     </row>
-    <row r="295" spans="3:3" ht="14.25" customHeight="1">
+    <row r="295" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C295" s="5"/>
     </row>
-    <row r="296" spans="3:3" ht="14.25" customHeight="1">
+    <row r="296" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C296" s="5"/>
     </row>
-    <row r="297" spans="3:3" ht="14.25" customHeight="1">
+    <row r="297" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C297" s="5"/>
     </row>
-    <row r="298" spans="3:3" ht="14.25" customHeight="1">
+    <row r="298" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C298" s="5"/>
     </row>
-    <row r="299" spans="3:3" ht="14.25" customHeight="1">
+    <row r="299" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C299" s="5"/>
     </row>
-    <row r="300" spans="3:3" ht="14.25" customHeight="1">
+    <row r="300" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C300" s="5"/>
     </row>
-    <row r="301" spans="3:3" ht="14.25" customHeight="1">
+    <row r="301" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C301" s="5"/>
     </row>
-    <row r="302" spans="3:3" ht="14.25" customHeight="1">
+    <row r="302" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C302" s="5"/>
     </row>
-    <row r="303" spans="3:3" ht="14.25" customHeight="1">
+    <row r="303" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C303" s="5"/>
     </row>
-    <row r="304" spans="3:3" ht="14.25" customHeight="1">
+    <row r="304" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C304" s="5"/>
     </row>
-    <row r="305" spans="3:3" ht="14.25" customHeight="1">
+    <row r="305" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C305" s="5"/>
     </row>
-    <row r="306" spans="3:3" ht="14.25" customHeight="1">
+    <row r="306" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C306" s="5"/>
     </row>
-    <row r="307" spans="3:3" ht="14.25" customHeight="1">
+    <row r="307" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C307" s="5"/>
     </row>
-    <row r="308" spans="3:3" ht="14.25" customHeight="1">
+    <row r="308" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C308" s="5"/>
     </row>
-    <row r="309" spans="3:3" ht="14.25" customHeight="1">
+    <row r="309" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C309" s="5"/>
     </row>
-    <row r="310" spans="3:3" ht="14.25" customHeight="1">
+    <row r="310" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C310" s="5"/>
     </row>
-    <row r="311" spans="3:3" ht="14.25" customHeight="1">
+    <row r="311" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C311" s="5"/>
     </row>
-    <row r="312" spans="3:3" ht="14.25" customHeight="1">
+    <row r="312" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C312" s="5"/>
     </row>
-    <row r="313" spans="3:3" ht="14.25" customHeight="1">
+    <row r="313" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C313" s="5"/>
     </row>
-    <row r="314" spans="3:3" ht="14.25" customHeight="1">
+    <row r="314" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C314" s="5"/>
     </row>
-    <row r="315" spans="3:3" ht="14.25" customHeight="1">
+    <row r="315" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C315" s="5"/>
     </row>
-    <row r="316" spans="3:3" ht="14.25" customHeight="1">
+    <row r="316" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C316" s="5"/>
     </row>
-    <row r="317" spans="3:3" ht="14.25" customHeight="1">
+    <row r="317" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C317" s="5"/>
     </row>
-    <row r="318" spans="3:3" ht="14.25" customHeight="1">
+    <row r="318" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C318" s="5"/>
     </row>
-    <row r="319" spans="3:3" ht="14.25" customHeight="1">
+    <row r="319" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C319" s="5"/>
     </row>
-    <row r="320" spans="3:3" ht="14.25" customHeight="1">
+    <row r="320" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C320" s="5"/>
     </row>
-    <row r="321" spans="3:3" ht="14.25" customHeight="1">
+    <row r="321" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C321" s="5"/>
     </row>
-    <row r="322" spans="3:3" ht="14.25" customHeight="1">
+    <row r="322" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C322" s="5"/>
     </row>
-    <row r="323" spans="3:3" ht="14.25" customHeight="1">
+    <row r="323" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C323" s="5"/>
     </row>
-    <row r="324" spans="3:3" ht="14.25" customHeight="1">
+    <row r="324" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C324" s="5"/>
     </row>
-    <row r="325" spans="3:3" ht="14.25" customHeight="1">
+    <row r="325" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C325" s="5"/>
     </row>
-    <row r="326" spans="3:3" ht="14.25" customHeight="1">
+    <row r="326" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C326" s="5"/>
     </row>
-    <row r="327" spans="3:3" ht="14.25" customHeight="1">
+    <row r="327" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C327" s="5"/>
     </row>
-    <row r="328" spans="3:3" ht="14.25" customHeight="1">
+    <row r="328" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C328" s="5"/>
     </row>
-    <row r="329" spans="3:3" ht="14.25" customHeight="1">
+    <row r="329" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C329" s="5"/>
     </row>
-    <row r="330" spans="3:3" ht="14.25" customHeight="1">
+    <row r="330" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C330" s="5"/>
     </row>
-    <row r="331" spans="3:3" ht="14.25" customHeight="1">
+    <row r="331" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C331" s="5"/>
     </row>
-    <row r="332" spans="3:3" ht="14.25" customHeight="1">
+    <row r="332" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C332" s="5"/>
     </row>
-    <row r="333" spans="3:3" ht="14.25" customHeight="1">
+    <row r="333" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C333" s="5"/>
     </row>
-    <row r="334" spans="3:3" ht="14.25" customHeight="1">
+    <row r="334" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C334" s="5"/>
     </row>
-    <row r="335" spans="3:3" ht="14.25" customHeight="1">
+    <row r="335" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C335" s="5"/>
     </row>
-    <row r="336" spans="3:3" ht="14.25" customHeight="1">
+    <row r="336" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C336" s="5"/>
     </row>
-    <row r="337" spans="3:3" ht="14.25" customHeight="1">
+    <row r="337" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C337" s="5"/>
     </row>
-    <row r="338" spans="3:3" ht="14.25" customHeight="1">
+    <row r="338" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C338" s="5"/>
     </row>
-    <row r="339" spans="3:3" ht="14.25" customHeight="1">
+    <row r="339" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C339" s="5"/>
     </row>
-    <row r="340" spans="3:3" ht="14.25" customHeight="1">
+    <row r="340" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C340" s="5"/>
     </row>
-    <row r="341" spans="3:3" ht="14.25" customHeight="1">
+    <row r="341" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C341" s="5"/>
     </row>
-    <row r="342" spans="3:3" ht="14.25" customHeight="1">
+    <row r="342" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C342" s="5"/>
     </row>
-    <row r="343" spans="3:3" ht="14.25" customHeight="1">
+    <row r="343" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C343" s="5"/>
     </row>
-    <row r="344" spans="3:3" ht="14.25" customHeight="1">
+    <row r="344" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C344" s="5"/>
     </row>
-    <row r="345" spans="3:3" ht="14.25" customHeight="1">
+    <row r="345" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C345" s="5"/>
     </row>
-    <row r="346" spans="3:3" ht="14.25" customHeight="1">
+    <row r="346" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C346" s="5"/>
     </row>
-    <row r="347" spans="3:3" ht="14.25" customHeight="1">
+    <row r="347" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C347" s="5"/>
     </row>
-    <row r="348" spans="3:3" ht="14.25" customHeight="1">
+    <row r="348" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C348" s="5"/>
     </row>
-    <row r="349" spans="3:3" ht="14.25" customHeight="1">
+    <row r="349" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C349" s="5"/>
     </row>
-    <row r="350" spans="3:3" ht="14.25" customHeight="1">
+    <row r="350" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C350" s="5"/>
     </row>
-    <row r="351" spans="3:3" ht="14.25" customHeight="1">
+    <row r="351" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C351" s="5"/>
     </row>
-    <row r="352" spans="3:3" ht="14.25" customHeight="1">
+    <row r="352" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C352" s="5"/>
     </row>
-    <row r="353" spans="3:3" ht="14.25" customHeight="1">
+    <row r="353" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C353" s="5"/>
     </row>
-    <row r="354" spans="3:3" ht="14.25" customHeight="1">
+    <row r="354" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C354" s="5"/>
     </row>
-    <row r="355" spans="3:3" ht="14.25" customHeight="1">
+    <row r="355" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C355" s="5"/>
     </row>
-    <row r="356" spans="3:3" ht="14.25" customHeight="1">
+    <row r="356" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C356" s="5"/>
     </row>
-    <row r="357" spans="3:3" ht="14.25" customHeight="1">
+    <row r="357" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C357" s="5"/>
     </row>
-    <row r="358" spans="3:3" ht="14.25" customHeight="1">
+    <row r="358" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C358" s="5"/>
     </row>
-    <row r="359" spans="3:3" ht="14.25" customHeight="1">
+    <row r="359" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C359" s="5"/>
     </row>
-    <row r="360" spans="3:3" ht="14.25" customHeight="1">
+    <row r="360" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C360" s="5"/>
     </row>
-    <row r="361" spans="3:3" ht="14.25" customHeight="1">
+    <row r="361" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C361" s="5"/>
     </row>
-    <row r="362" spans="3:3" ht="14.25" customHeight="1">
+    <row r="362" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C362" s="5"/>
     </row>
-    <row r="363" spans="3:3" ht="14.25" customHeight="1">
+    <row r="363" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C363" s="5"/>
     </row>
-    <row r="364" spans="3:3" ht="14.25" customHeight="1">
+    <row r="364" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C364" s="5"/>
     </row>
-    <row r="365" spans="3:3" ht="14.25" customHeight="1">
+    <row r="365" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C365" s="5"/>
     </row>
-    <row r="366" spans="3:3" ht="14.25" customHeight="1">
+    <row r="366" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C366" s="5"/>
     </row>
-    <row r="367" spans="3:3" ht="14.25" customHeight="1">
+    <row r="367" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C367" s="5"/>
     </row>
-    <row r="368" spans="3:3" ht="14.25" customHeight="1">
+    <row r="368" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C368" s="5"/>
     </row>
-    <row r="369" spans="3:3" ht="14.25" customHeight="1">
+    <row r="369" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C369" s="5"/>
     </row>
-    <row r="370" spans="3:3" ht="14.25" customHeight="1">
+    <row r="370" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C370" s="5"/>
     </row>
-    <row r="371" spans="3:3" ht="14.25" customHeight="1">
+    <row r="371" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C371" s="5"/>
     </row>
-    <row r="372" spans="3:3" ht="14.25" customHeight="1">
+    <row r="372" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C372" s="5"/>
     </row>
-    <row r="373" spans="3:3" ht="14.25" customHeight="1">
+    <row r="373" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C373" s="5"/>
     </row>
-    <row r="374" spans="3:3" ht="14.25" customHeight="1">
+    <row r="374" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C374" s="5"/>
     </row>
-    <row r="375" spans="3:3" ht="14.25" customHeight="1">
+    <row r="375" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C375" s="5"/>
     </row>
-    <row r="376" spans="3:3" ht="14.25" customHeight="1">
+    <row r="376" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C376" s="5"/>
     </row>
-    <row r="377" spans="3:3" ht="14.25" customHeight="1">
+    <row r="377" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C377" s="5"/>
     </row>
-    <row r="378" spans="3:3" ht="14.25" customHeight="1">
+    <row r="378" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C378" s="5"/>
     </row>
-    <row r="379" spans="3:3" ht="14.25" customHeight="1">
+    <row r="379" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C379" s="5"/>
     </row>
-    <row r="380" spans="3:3" ht="14.25" customHeight="1">
+    <row r="380" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C380" s="5"/>
     </row>
-    <row r="381" spans="3:3" ht="14.25" customHeight="1">
+    <row r="381" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C381" s="5"/>
     </row>
-    <row r="382" spans="3:3" ht="14.25" customHeight="1">
+    <row r="382" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C382" s="5"/>
     </row>
-    <row r="383" spans="3:3" ht="14.25" customHeight="1">
+    <row r="383" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C383" s="5"/>
     </row>
-    <row r="384" spans="3:3" ht="14.25" customHeight="1">
+    <row r="384" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C384" s="5"/>
     </row>
-    <row r="385" spans="3:3" ht="14.25" customHeight="1">
+    <row r="385" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C385" s="5"/>
     </row>
-    <row r="386" spans="3:3" ht="14.25" customHeight="1">
+    <row r="386" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C386" s="5"/>
     </row>
-    <row r="387" spans="3:3" ht="14.25" customHeight="1">
+    <row r="387" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C387" s="5"/>
     </row>
-    <row r="388" spans="3:3" ht="14.25" customHeight="1">
+    <row r="388" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C388" s="5"/>
     </row>
-    <row r="389" spans="3:3" ht="14.25" customHeight="1">
+    <row r="389" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C389" s="5"/>
     </row>
-    <row r="390" spans="3:3" ht="14.25" customHeight="1">
+    <row r="390" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C390" s="5"/>
     </row>
-    <row r="391" spans="3:3" ht="14.25" customHeight="1">
+    <row r="391" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C391" s="5"/>
     </row>
-    <row r="392" spans="3:3" ht="14.25" customHeight="1">
+    <row r="392" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C392" s="5"/>
     </row>
-    <row r="393" spans="3:3" ht="14.25" customHeight="1">
+    <row r="393" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C393" s="5"/>
     </row>
-    <row r="394" spans="3:3" ht="14.25" customHeight="1">
+    <row r="394" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C394" s="5"/>
     </row>
-    <row r="395" spans="3:3" ht="14.25" customHeight="1">
+    <row r="395" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C395" s="5"/>
     </row>
-    <row r="396" spans="3:3" ht="14.25" customHeight="1">
+    <row r="396" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C396" s="5"/>
     </row>
-    <row r="397" spans="3:3" ht="14.25" customHeight="1">
+    <row r="397" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C397" s="5"/>
     </row>
-    <row r="398" spans="3:3" ht="14.25" customHeight="1">
+    <row r="398" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C398" s="5"/>
     </row>
-    <row r="399" spans="3:3" ht="14.25" customHeight="1">
+    <row r="399" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C399" s="5"/>
     </row>
-    <row r="400" spans="3:3" ht="14.25" customHeight="1">
+    <row r="400" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C400" s="5"/>
     </row>
-    <row r="401" spans="3:3" ht="14.25" customHeight="1">
+    <row r="401" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C401" s="5"/>
     </row>
-    <row r="402" spans="3:3" ht="14.25" customHeight="1">
+    <row r="402" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C402" s="5"/>
     </row>
-    <row r="403" spans="3:3" ht="14.25" customHeight="1">
+    <row r="403" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C403" s="5"/>
     </row>
-    <row r="404" spans="3:3" ht="14.25" customHeight="1">
+    <row r="404" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C404" s="5"/>
     </row>
-    <row r="405" spans="3:3" ht="14.25" customHeight="1">
+    <row r="405" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C405" s="5"/>
     </row>
-    <row r="406" spans="3:3" ht="14.25" customHeight="1">
+    <row r="406" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C406" s="5"/>
     </row>
-    <row r="407" spans="3:3" ht="14.25" customHeight="1">
+    <row r="407" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C407" s="5"/>
     </row>
-    <row r="408" spans="3:3" ht="14.25" customHeight="1">
+    <row r="408" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C408" s="5"/>
     </row>
-    <row r="409" spans="3:3" ht="14.25" customHeight="1">
+    <row r="409" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C409" s="5"/>
     </row>
-    <row r="410" spans="3:3" ht="14.25" customHeight="1">
+    <row r="410" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C410" s="5"/>
     </row>
-    <row r="411" spans="3:3" ht="14.25" customHeight="1">
+    <row r="411" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C411" s="5"/>
     </row>
-    <row r="412" spans="3:3" ht="14.25" customHeight="1">
+    <row r="412" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C412" s="5"/>
     </row>
-    <row r="413" spans="3:3" ht="14.25" customHeight="1">
+    <row r="413" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C413" s="5"/>
     </row>
-    <row r="414" spans="3:3" ht="14.25" customHeight="1">
+    <row r="414" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C414" s="5"/>
     </row>
-    <row r="415" spans="3:3" ht="14.25" customHeight="1">
+    <row r="415" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C415" s="5"/>
     </row>
-    <row r="416" spans="3:3" ht="14.25" customHeight="1">
+    <row r="416" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C416" s="5"/>
     </row>
-    <row r="417" spans="3:3" ht="14.25" customHeight="1">
+    <row r="417" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C417" s="5"/>
     </row>
-    <row r="418" spans="3:3" ht="14.25" customHeight="1">
+    <row r="418" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C418" s="5"/>
     </row>
-    <row r="419" spans="3:3" ht="14.25" customHeight="1">
+    <row r="419" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C419" s="5"/>
     </row>
-    <row r="420" spans="3:3" ht="14.25" customHeight="1">
+    <row r="420" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C420" s="5"/>
     </row>
-    <row r="421" spans="3:3" ht="14.25" customHeight="1">
+    <row r="421" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C421" s="5"/>
     </row>
-    <row r="422" spans="3:3" ht="14.25" customHeight="1">
+    <row r="422" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C422" s="5"/>
     </row>
-    <row r="423" spans="3:3" ht="14.25" customHeight="1">
+    <row r="423" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C423" s="5"/>
     </row>
-    <row r="424" spans="3:3" ht="14.25" customHeight="1">
+    <row r="424" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C424" s="5"/>
     </row>
-    <row r="425" spans="3:3" ht="14.25" customHeight="1">
+    <row r="425" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C425" s="5"/>
     </row>
-    <row r="426" spans="3:3" ht="14.25" customHeight="1">
+    <row r="426" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C426" s="5"/>
     </row>
-    <row r="427" spans="3:3" ht="14.25" customHeight="1">
+    <row r="427" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C427" s="5"/>
     </row>
-    <row r="428" spans="3:3" ht="14.25" customHeight="1">
+    <row r="428" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C428" s="5"/>
     </row>
-    <row r="429" spans="3:3" ht="14.25" customHeight="1">
+    <row r="429" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C429" s="5"/>
     </row>
-    <row r="430" spans="3:3" ht="14.25" customHeight="1">
+    <row r="430" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C430" s="5"/>
     </row>
-    <row r="431" spans="3:3" ht="14.25" customHeight="1">
+    <row r="431" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C431" s="5"/>
     </row>
-    <row r="432" spans="3:3" ht="14.25" customHeight="1">
+    <row r="432" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C432" s="5"/>
     </row>
-    <row r="433" spans="3:3" ht="14.25" customHeight="1">
+    <row r="433" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C433" s="5"/>
     </row>
-    <row r="434" spans="3:3" ht="14.25" customHeight="1">
+    <row r="434" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C434" s="5"/>
     </row>
-    <row r="435" spans="3:3" ht="14.25" customHeight="1">
+    <row r="435" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C435" s="5"/>
     </row>
-    <row r="436" spans="3:3" ht="14.25" customHeight="1">
+    <row r="436" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C436" s="5"/>
     </row>
-    <row r="437" spans="3:3" ht="14.25" customHeight="1">
+    <row r="437" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C437" s="5"/>
     </row>
-    <row r="438" spans="3:3" ht="14.25" customHeight="1">
+    <row r="438" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C438" s="5"/>
     </row>
-    <row r="439" spans="3:3" ht="14.25" customHeight="1">
+    <row r="439" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C439" s="5"/>
     </row>
-    <row r="440" spans="3:3" ht="14.25" customHeight="1">
+    <row r="440" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C440" s="5"/>
     </row>
-    <row r="441" spans="3:3" ht="14.25" customHeight="1">
+    <row r="441" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C441" s="5"/>
     </row>
-    <row r="442" spans="3:3" ht="14.25" customHeight="1">
+    <row r="442" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C442" s="5"/>
     </row>
-    <row r="443" spans="3:3" ht="14.25" customHeight="1">
+    <row r="443" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C443" s="5"/>
     </row>
-    <row r="444" spans="3:3" ht="14.25" customHeight="1">
+    <row r="444" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C444" s="5"/>
     </row>
-    <row r="445" spans="3:3" ht="14.25" customHeight="1">
+    <row r="445" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C445" s="5"/>
     </row>
-    <row r="446" spans="3:3" ht="14.25" customHeight="1">
+    <row r="446" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C446" s="5"/>
     </row>
-    <row r="447" spans="3:3" ht="14.25" customHeight="1">
+    <row r="447" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C447" s="5"/>
     </row>
-    <row r="448" spans="3:3" ht="14.25" customHeight="1">
+    <row r="448" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C448" s="5"/>
     </row>
-    <row r="449" spans="3:3" ht="14.25" customHeight="1">
+    <row r="449" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C449" s="5"/>
     </row>
-    <row r="450" spans="3:3" ht="14.25" customHeight="1">
+    <row r="450" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C450" s="5"/>
     </row>
-    <row r="451" spans="3:3" ht="14.25" customHeight="1">
+    <row r="451" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C451" s="5"/>
     </row>
-    <row r="452" spans="3:3" ht="14.25" customHeight="1">
+    <row r="452" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C452" s="5"/>
     </row>
-    <row r="453" spans="3:3" ht="14.25" customHeight="1">
+    <row r="453" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C453" s="5"/>
     </row>
-    <row r="454" spans="3:3" ht="14.25" customHeight="1">
+    <row r="454" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C454" s="5"/>
     </row>
-    <row r="455" spans="3:3" ht="14.25" customHeight="1">
+    <row r="455" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C455" s="5"/>
     </row>
-    <row r="456" spans="3:3" ht="14.25" customHeight="1">
+    <row r="456" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C456" s="5"/>
     </row>
-    <row r="457" spans="3:3" ht="14.25" customHeight="1">
+    <row r="457" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C457" s="5"/>
     </row>
-    <row r="458" spans="3:3" ht="14.25" customHeight="1">
+    <row r="458" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C458" s="5"/>
     </row>
-    <row r="459" spans="3:3" ht="14.25" customHeight="1">
+    <row r="459" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C459" s="5"/>
     </row>
-    <row r="460" spans="3:3" ht="14.25" customHeight="1">
+    <row r="460" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C460" s="5"/>
     </row>
-    <row r="461" spans="3:3" ht="14.25" customHeight="1">
+    <row r="461" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C461" s="5"/>
     </row>
-    <row r="462" spans="3:3" ht="14.25" customHeight="1">
+    <row r="462" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C462" s="5"/>
     </row>
-    <row r="463" spans="3:3" ht="14.25" customHeight="1">
+    <row r="463" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C463" s="5"/>
     </row>
-    <row r="464" spans="3:3" ht="14.25" customHeight="1">
+    <row r="464" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C464" s="5"/>
     </row>
-    <row r="465" spans="3:3" ht="14.25" customHeight="1">
+    <row r="465" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C465" s="5"/>
     </row>
-    <row r="466" spans="3:3" ht="14.25" customHeight="1">
+    <row r="466" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C466" s="5"/>
     </row>
-    <row r="467" spans="3:3" ht="14.25" customHeight="1">
+    <row r="467" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C467" s="5"/>
     </row>
-    <row r="468" spans="3:3" ht="14.25" customHeight="1">
+    <row r="468" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C468" s="5"/>
     </row>
-    <row r="469" spans="3:3" ht="14.25" customHeight="1">
+    <row r="469" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C469" s="5"/>
     </row>
-    <row r="470" spans="3:3" ht="14.25" customHeight="1">
+    <row r="470" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C470" s="5"/>
     </row>
-    <row r="471" spans="3:3" ht="14.25" customHeight="1">
+    <row r="471" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C471" s="5"/>
     </row>
-    <row r="472" spans="3:3" ht="14.25" customHeight="1">
+    <row r="472" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C472" s="5"/>
     </row>
-    <row r="473" spans="3:3" ht="14.25" customHeight="1">
+    <row r="473" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C473" s="5"/>
     </row>
-    <row r="474" spans="3:3" ht="14.25" customHeight="1">
+    <row r="474" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C474" s="5"/>
     </row>
-    <row r="475" spans="3:3" ht="14.25" customHeight="1">
+    <row r="475" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C475" s="5"/>
     </row>
-    <row r="476" spans="3:3" ht="14.25" customHeight="1">
+    <row r="476" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C476" s="5"/>
     </row>
-    <row r="477" spans="3:3" ht="14.25" customHeight="1">
+    <row r="477" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C477" s="5"/>
     </row>
-    <row r="478" spans="3:3" ht="14.25" customHeight="1">
+    <row r="478" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C478" s="5"/>
     </row>
-    <row r="479" spans="3:3" ht="14.25" customHeight="1">
+    <row r="479" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C479" s="5"/>
     </row>
-    <row r="480" spans="3:3" ht="14.25" customHeight="1">
+    <row r="480" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C480" s="5"/>
     </row>
-    <row r="481" spans="3:3" ht="14.25" customHeight="1">
+    <row r="481" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C481" s="5"/>
     </row>
-    <row r="482" spans="3:3" ht="14.25" customHeight="1">
+    <row r="482" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C482" s="5"/>
     </row>
-    <row r="483" spans="3:3" ht="14.25" customHeight="1">
+    <row r="483" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C483" s="5"/>
     </row>
-    <row r="484" spans="3:3" ht="14.25" customHeight="1">
+    <row r="484" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C484" s="5"/>
     </row>
-    <row r="485" spans="3:3" ht="14.25" customHeight="1">
+    <row r="485" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C485" s="5"/>
     </row>
-    <row r="486" spans="3:3" ht="14.25" customHeight="1">
+    <row r="486" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C486" s="5"/>
     </row>
-    <row r="487" spans="3:3" ht="14.25" customHeight="1">
+    <row r="487" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C487" s="5"/>
     </row>
-    <row r="488" spans="3:3" ht="14.25" customHeight="1">
+    <row r="488" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C488" s="5"/>
     </row>
-    <row r="489" spans="3:3" ht="14.25" customHeight="1">
+    <row r="489" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C489" s="5"/>
     </row>
-    <row r="490" spans="3:3" ht="14.25" customHeight="1">
+    <row r="490" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C490" s="5"/>
     </row>
-    <row r="491" spans="3:3" ht="14.25" customHeight="1">
+    <row r="491" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C491" s="5"/>
     </row>
-    <row r="492" spans="3:3" ht="14.25" customHeight="1">
+    <row r="492" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C492" s="5"/>
     </row>
-    <row r="493" spans="3:3" ht="14.25" customHeight="1">
+    <row r="493" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C493" s="5"/>
     </row>
-    <row r="494" spans="3:3" ht="14.25" customHeight="1">
+    <row r="494" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C494" s="5"/>
     </row>
-    <row r="495" spans="3:3" ht="14.25" customHeight="1">
+    <row r="495" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C495" s="5"/>
     </row>
-    <row r="496" spans="3:3" ht="14.25" customHeight="1">
+    <row r="496" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C496" s="5"/>
     </row>
-    <row r="497" spans="3:3" ht="14.25" customHeight="1">
+    <row r="497" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C497" s="5"/>
     </row>
-    <row r="498" spans="3:3" ht="14.25" customHeight="1">
+    <row r="498" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C498" s="5"/>
     </row>
-    <row r="499" spans="3:3" ht="14.25" customHeight="1">
+    <row r="499" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C499" s="5"/>
     </row>
-    <row r="500" spans="3:3" ht="14.25" customHeight="1">
+    <row r="500" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C500" s="5"/>
     </row>
-    <row r="501" spans="3:3" ht="14.25" customHeight="1">
+    <row r="501" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C501" s="5"/>
     </row>
-    <row r="502" spans="3:3" ht="14.25" customHeight="1">
+    <row r="502" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C502" s="5"/>
     </row>
-    <row r="503" spans="3:3" ht="14.25" customHeight="1">
+    <row r="503" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C503" s="5"/>
     </row>
-    <row r="504" spans="3:3" ht="14.25" customHeight="1">
+    <row r="504" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C504" s="5"/>
     </row>
-    <row r="505" spans="3:3" ht="14.25" customHeight="1">
+    <row r="505" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C505" s="5"/>
     </row>
-    <row r="506" spans="3:3" ht="14.25" customHeight="1">
+    <row r="506" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C506" s="5"/>
     </row>
-    <row r="507" spans="3:3" ht="14.25" customHeight="1">
+    <row r="507" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C507" s="5"/>
     </row>
-    <row r="508" spans="3:3" ht="14.25" customHeight="1">
+    <row r="508" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C508" s="5"/>
     </row>
-    <row r="509" spans="3:3" ht="14.25" customHeight="1">
+    <row r="509" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C509" s="5"/>
     </row>
-    <row r="510" spans="3:3" ht="14.25" customHeight="1">
+    <row r="510" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C510" s="5"/>
     </row>
-    <row r="511" spans="3:3" ht="14.25" customHeight="1">
+    <row r="511" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C511" s="5"/>
     </row>
-    <row r="512" spans="3:3" ht="14.25" customHeight="1">
+    <row r="512" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C512" s="5"/>
     </row>
-    <row r="513" spans="3:3" ht="14.25" customHeight="1">
+    <row r="513" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C513" s="5"/>
     </row>
-    <row r="514" spans="3:3" ht="14.25" customHeight="1">
+    <row r="514" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C514" s="5"/>
     </row>
-    <row r="515" spans="3:3" ht="14.25" customHeight="1">
+    <row r="515" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C515" s="5"/>
     </row>
-    <row r="516" spans="3:3" ht="14.25" customHeight="1">
+    <row r="516" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C516" s="5"/>
     </row>
-    <row r="517" spans="3:3" ht="14.25" customHeight="1">
+    <row r="517" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C517" s="5"/>
     </row>
-    <row r="518" spans="3:3" ht="14.25" customHeight="1">
+    <row r="518" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C518" s="5"/>
     </row>
-    <row r="519" spans="3:3" ht="14.25" customHeight="1">
+    <row r="519" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C519" s="5"/>
     </row>
-    <row r="520" spans="3:3" ht="14.25" customHeight="1">
+    <row r="520" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C520" s="5"/>
     </row>
-    <row r="521" spans="3:3" ht="14.25" customHeight="1">
+    <row r="521" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C521" s="5"/>
     </row>
-    <row r="522" spans="3:3" ht="14.25" customHeight="1">
+    <row r="522" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C522" s="5"/>
     </row>
-    <row r="523" spans="3:3" ht="14.25" customHeight="1">
+    <row r="523" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C523" s="5"/>
     </row>
-    <row r="524" spans="3:3" ht="14.25" customHeight="1">
+    <row r="524" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C524" s="5"/>
     </row>
-    <row r="525" spans="3:3" ht="14.25" customHeight="1">
+    <row r="525" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C525" s="5"/>
     </row>
-    <row r="526" spans="3:3" ht="14.25" customHeight="1">
+    <row r="526" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C526" s="5"/>
     </row>
-    <row r="527" spans="3:3" ht="14.25" customHeight="1">
+    <row r="527" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C527" s="5"/>
     </row>
-    <row r="528" spans="3:3" ht="14.25" customHeight="1">
+    <row r="528" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C528" s="5"/>
     </row>
-    <row r="529" spans="3:3" ht="14.25" customHeight="1">
+    <row r="529" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C529" s="5"/>
     </row>
-    <row r="530" spans="3:3" ht="14.25" customHeight="1">
+    <row r="530" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C530" s="5"/>
     </row>
-    <row r="531" spans="3:3" ht="14.25" customHeight="1">
+    <row r="531" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C531" s="5"/>
     </row>
-    <row r="532" spans="3:3" ht="14.25" customHeight="1">
+    <row r="532" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C532" s="5"/>
     </row>
-    <row r="533" spans="3:3" ht="14.25" customHeight="1">
+    <row r="533" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C533" s="5"/>
     </row>
-    <row r="534" spans="3:3" ht="14.25" customHeight="1">
+    <row r="534" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C534" s="5"/>
     </row>
-    <row r="535" spans="3:3" ht="14.25" customHeight="1">
+    <row r="535" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C535" s="5"/>
     </row>
-    <row r="536" spans="3:3" ht="14.25" customHeight="1">
+    <row r="536" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C536" s="5"/>
     </row>
-    <row r="537" spans="3:3" ht="14.25" customHeight="1">
+    <row r="537" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C537" s="5"/>
     </row>
-    <row r="538" spans="3:3" ht="14.25" customHeight="1">
+    <row r="538" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C538" s="5"/>
     </row>
-    <row r="539" spans="3:3" ht="14.25" customHeight="1">
+    <row r="539" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C539" s="5"/>
     </row>
-    <row r="540" spans="3:3" ht="14.25" customHeight="1">
+    <row r="540" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C540" s="5"/>
     </row>
-    <row r="541" spans="3:3" ht="14.25" customHeight="1">
+    <row r="541" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C541" s="5"/>
     </row>
-    <row r="542" spans="3:3" ht="14.25" customHeight="1">
+    <row r="542" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C542" s="5"/>
     </row>
-    <row r="543" spans="3:3" ht="14.25" customHeight="1">
+    <row r="543" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C543" s="5"/>
     </row>
-    <row r="544" spans="3:3" ht="14.25" customHeight="1">
+    <row r="544" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C544" s="5"/>
     </row>
-    <row r="545" spans="3:3" ht="14.25" customHeight="1">
+    <row r="545" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C545" s="5"/>
     </row>
-    <row r="546" spans="3:3" ht="14.25" customHeight="1">
+    <row r="546" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C546" s="5"/>
     </row>
-    <row r="547" spans="3:3" ht="14.25" customHeight="1">
+    <row r="547" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C547" s="5"/>
     </row>
-    <row r="548" spans="3:3" ht="14.25" customHeight="1">
+    <row r="548" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C548" s="5"/>
     </row>
-    <row r="549" spans="3:3" ht="14.25" customHeight="1">
+    <row r="549" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C549" s="5"/>
     </row>
-    <row r="550" spans="3:3" ht="14.25" customHeight="1">
+    <row r="550" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C550" s="5"/>
     </row>
-    <row r="551" spans="3:3" ht="14.25" customHeight="1">
+    <row r="551" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C551" s="5"/>
     </row>
-    <row r="552" spans="3:3" ht="14.25" customHeight="1">
+    <row r="552" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C552" s="5"/>
     </row>
-    <row r="553" spans="3:3" ht="14.25" customHeight="1">
+    <row r="553" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C553" s="5"/>
     </row>
-    <row r="554" spans="3:3" ht="14.25" customHeight="1">
+    <row r="554" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C554" s="5"/>
     </row>
-    <row r="555" spans="3:3" ht="14.25" customHeight="1">
+    <row r="555" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C555" s="5"/>
     </row>
-    <row r="556" spans="3:3" ht="14.25" customHeight="1">
+    <row r="556" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C556" s="5"/>
     </row>
-    <row r="557" spans="3:3" ht="14.25" customHeight="1">
+    <row r="557" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C557" s="5"/>
     </row>
-    <row r="558" spans="3:3" ht="14.25" customHeight="1">
+    <row r="558" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C558" s="5"/>
     </row>
-    <row r="559" spans="3:3" ht="14.25" customHeight="1">
+    <row r="559" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C559" s="5"/>
     </row>
-    <row r="560" spans="3:3" ht="14.25" customHeight="1">
+    <row r="560" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C560" s="5"/>
     </row>
-    <row r="561" spans="3:3" ht="14.25" customHeight="1">
+    <row r="561" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C561" s="5"/>
     </row>
-    <row r="562" spans="3:3" ht="14.25" customHeight="1">
+    <row r="562" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C562" s="5"/>
     </row>
-    <row r="563" spans="3:3" ht="14.25" customHeight="1">
+    <row r="563" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C563" s="5"/>
     </row>
-    <row r="564" spans="3:3" ht="14.25" customHeight="1">
+    <row r="564" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C564" s="5"/>
     </row>
-    <row r="565" spans="3:3" ht="14.25" customHeight="1">
+    <row r="565" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C565" s="5"/>
     </row>
-    <row r="566" spans="3:3" ht="14.25" customHeight="1">
+    <row r="566" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C566" s="5"/>
     </row>
-    <row r="567" spans="3:3" ht="14.25" customHeight="1">
+    <row r="567" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C567" s="5"/>
     </row>
-    <row r="568" spans="3:3" ht="14.25" customHeight="1">
+    <row r="568" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C568" s="5"/>
     </row>
-    <row r="569" spans="3:3" ht="14.25" customHeight="1">
+    <row r="569" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C569" s="5"/>
     </row>
-    <row r="570" spans="3:3" ht="14.25" customHeight="1">
+    <row r="570" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C570" s="5"/>
     </row>
-    <row r="571" spans="3:3" ht="14.25" customHeight="1">
+    <row r="571" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C571" s="5"/>
     </row>
-    <row r="572" spans="3:3" ht="14.25" customHeight="1">
+    <row r="572" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C572" s="5"/>
     </row>
-    <row r="573" spans="3:3" ht="14.25" customHeight="1">
+    <row r="573" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C573" s="5"/>
     </row>
-    <row r="574" spans="3:3" ht="14.25" customHeight="1">
+    <row r="574" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C574" s="5"/>
     </row>
-    <row r="575" spans="3:3" ht="14.25" customHeight="1">
+    <row r="575" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C575" s="5"/>
     </row>
-    <row r="576" spans="3:3" ht="14.25" customHeight="1">
+    <row r="576" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C576" s="5"/>
     </row>
-    <row r="577" spans="3:3" ht="14.25" customHeight="1">
+    <row r="577" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C577" s="5"/>
     </row>
-    <row r="578" spans="3:3" ht="14.25" customHeight="1">
+    <row r="578" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C578" s="5"/>
     </row>
-    <row r="579" spans="3:3" ht="14.25" customHeight="1">
+    <row r="579" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C579" s="5"/>
     </row>
-    <row r="580" spans="3:3" ht="14.25" customHeight="1">
+    <row r="580" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C580" s="5"/>
     </row>
-    <row r="581" spans="3:3" ht="14.25" customHeight="1">
+    <row r="581" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C581" s="5"/>
     </row>
-    <row r="582" spans="3:3" ht="14.25" customHeight="1">
+    <row r="582" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C582" s="5"/>
     </row>
-    <row r="583" spans="3:3" ht="14.25" customHeight="1">
+    <row r="583" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C583" s="5"/>
     </row>
-    <row r="584" spans="3:3" ht="14.25" customHeight="1">
+    <row r="584" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C584" s="5"/>
     </row>
-    <row r="585" spans="3:3" ht="14.25" customHeight="1">
+    <row r="585" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C585" s="5"/>
     </row>
-    <row r="586" spans="3:3" ht="14.25" customHeight="1">
+    <row r="586" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C586" s="5"/>
     </row>
-    <row r="587" spans="3:3" ht="14.25" customHeight="1">
+    <row r="587" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C587" s="5"/>
     </row>
-    <row r="588" spans="3:3" ht="14.25" customHeight="1">
+    <row r="588" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C588" s="5"/>
     </row>
-    <row r="589" spans="3:3" ht="14.25" customHeight="1">
+    <row r="589" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C589" s="5"/>
     </row>
-    <row r="590" spans="3:3" ht="14.25" customHeight="1">
+    <row r="590" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C590" s="5"/>
     </row>
-    <row r="591" spans="3:3" ht="14.25" customHeight="1">
+    <row r="591" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C591" s="5"/>
     </row>
   </sheetData>
